--- a/Solved Problems/Trees/TreeProblems.xlsx
+++ b/Solved Problems/Trees/TreeProblems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\029421793\DSA\Solved Problems\Trees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2509022B-7A93-4B6C-ADE4-EC0B2D718FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5741BB2D-0F0F-4AC2-A314-747F65A74F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{62AF7736-522C-4ECB-A55D-14D9D935E003}"/>
   </bookViews>
@@ -137,10 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -461,7 +460,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,16 +481,16 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -499,7 +498,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -507,7 +506,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -515,7 +514,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
@@ -523,7 +522,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
@@ -531,7 +530,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
@@ -539,7 +538,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
@@ -547,7 +546,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
@@ -555,7 +554,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
@@ -563,7 +562,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">

--- a/Solved Problems/Trees/TreeProblems.xlsx
+++ b/Solved Problems/Trees/TreeProblems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\029421793\DSA\Solved Problems\Trees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5741BB2D-0F0F-4AC2-A314-747F65A74F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5497567E-2383-4093-B7C2-EF0C5C16EA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{62AF7736-522C-4ECB-A55D-14D9D935E003}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>Problems</t>
   </si>
@@ -83,13 +83,61 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>Sum of Left Leaves</t>
+  </si>
+  <si>
+    <t>Path Sum</t>
+  </si>
+  <si>
+    <t>Cousins in Binary Tree</t>
+  </si>
+  <si>
+    <t>Same tree</t>
+  </si>
+  <si>
+    <t>Invert binary tree</t>
+  </si>
+  <si>
+    <t>Symmetric Tree</t>
+  </si>
+  <si>
+    <t>Siblings in a binary tree</t>
+  </si>
+  <si>
+    <t>Print all nodes that don't have a sibling - gfg</t>
+  </si>
+  <si>
+    <t>Left view (hw)</t>
+  </si>
+  <si>
+    <t>Right view (hw)</t>
+  </si>
+  <si>
+    <t>Binary Tree Preorder Traversal(Iterative)</t>
+  </si>
+  <si>
+    <t>N-ary Tree Preorder Traversal(Iterative)</t>
+  </si>
+  <si>
+    <t>Binary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>N-ary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +148,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,12 +192,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2A1B41-1BB8-4037-B61E-6E2A9B7CEA78}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,7 +529,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -566,6 +625,110 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Solved Problems/Trees/TreeProblems.xlsx
+++ b/Solved Problems/Trees/TreeProblems.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\029421793\DSA\Solved Problems\Trees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5497567E-2383-4093-B7C2-EF0C5C16EA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070C3C32-EB22-4C44-BA3D-E7A885CCA6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{62AF7736-522C-4ECB-A55D-14D9D935E003}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>Problems</t>
   </si>
@@ -192,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -201,7 +201,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2A1B41-1BB8-4037-B61E-6E2A9B7CEA78}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -629,7 +628,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
@@ -637,7 +636,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
@@ -645,7 +644,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
@@ -653,43 +652,67 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -725,7 +748,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B28" t="s">

--- a/Solved Problems/Trees/TreeProblems.xlsx
+++ b/Solved Problems/Trees/TreeProblems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\029421793\DSA\Solved Problems\Trees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070C3C32-EB22-4C44-BA3D-E7A885CCA6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA0588B-B2B5-4834-B7E3-4EBB1D8AFAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{62AF7736-522C-4ECB-A55D-14D9D935E003}"/>
   </bookViews>
@@ -192,13 +192,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -518,7 +517,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -528,7 +527,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -684,7 +683,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B20" t="s">
@@ -716,7 +715,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
@@ -724,7 +723,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B25" t="s">
@@ -732,7 +731,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B26" t="s">
@@ -740,7 +739,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B27" t="s">
@@ -748,7 +747,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B28" t="s">

--- a/Solved Problems/Trees/TreeProblems.xlsx
+++ b/Solved Problems/Trees/TreeProblems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\029421793\DSA\Solved Problems\Trees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA0588B-B2B5-4834-B7E3-4EBB1D8AFAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADBBA80-E1AA-497D-AF07-164D51428D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{62AF7736-522C-4ECB-A55D-14D9D935E003}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>Problems</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>Top View of Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -160,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +182,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -192,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -200,6 +209,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2A1B41-1BB8-4037-B61E-6E2A9B7CEA78}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -754,6 +764,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Solved Problems/Trees/TreeProblems.xlsx
+++ b/Solved Problems/Trees/TreeProblems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\029421793\DSA\Solved Problems\Trees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADBBA80-E1AA-497D-AF07-164D51428D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2330910-3738-4551-9A37-F039AA419E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{62AF7736-522C-4ECB-A55D-14D9D935E003}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>Problems</t>
   </si>
@@ -134,6 +134,30 @@
   </si>
   <si>
     <t>Top View of Binary Tree</t>
+  </si>
+  <si>
+    <t>Nodes at k distance</t>
+  </si>
+  <si>
+    <t>Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal II</t>
+  </si>
+  <si>
+    <t>Average of Levels in Binary Tree</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree(BFS)</t>
+  </si>
+  <si>
+    <t>Univalued Binary Tree(BFS)</t>
+  </si>
+  <si>
+    <t>Same Tree(BFS)</t>
   </si>
 </sst>
 </file>
@@ -163,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,12 +203,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,7 +227,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2A1B41-1BB8-4037-B61E-6E2A9B7CEA78}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -765,10 +783,74 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Solved Problems/Trees/TreeProblems.xlsx
+++ b/Solved Problems/Trees/TreeProblems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\029421793\DSA\Solved Problems\Trees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2330910-3738-4551-9A37-F039AA419E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F320D1-5987-43A1-BB7D-760225C70789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{62AF7736-522C-4ECB-A55D-14D9D935E003}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
   <si>
     <t>Problems</t>
   </si>
@@ -158,13 +158,25 @@
   </si>
   <si>
     <t>Same Tree(BFS)</t>
+  </si>
+  <si>
+    <t>Cousins in Binary Tree(BFS)</t>
+  </si>
+  <si>
+    <t>Sum of Left Leaves(BFS)</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node</t>
+  </si>
+  <si>
+    <t>All Nodes Distance K in Binary Tree(BFS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +197,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -219,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -228,6 +246,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2A1B41-1BB8-4037-B61E-6E2A9B7CEA78}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -854,6 +874,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
